--- a/user-data/income-share-top-10pc/income-share-top-10pc.xlsx
+++ b/user-data/income-share-top-10pc/income-share-top-10pc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="447">
   <si>
     <t>id</t>
   </si>
@@ -1334,9 +1334,6 @@
   </si>
   <si>
     <t>Source: World Bank World Development Indicators</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1721,32 +1718,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13">
@@ -1762,11 +1759,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/income-share-top-10pc/income-share-top-10pc.xlsx
+++ b/user-data/income-share-top-10pc/income-share-top-10pc.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1342,7 +1342,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/income-share-top-10pc/income-share-top-10pc.xlsx
+++ b/user-data/income-share-top-10pc/income-share-top-10pc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
   <si>
     <t>id</t>
   </si>
@@ -1348,7 +1348,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1761,6 +1764,11 @@
         <v>446</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>447</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/income-share-top-10pc/income-share-top-10pc.xlsx
+++ b/user-data/income-share-top-10pc/income-share-top-10pc.xlsx
@@ -67,7 +67,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -175,7 +175,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -214,88 +214,88 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -313,7 +313,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -991,7 +991,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1009,7 +1009,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1183,7 +1183,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1207,7 +1207,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1228,18 +1228,18 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>UY</t>
   </si>
   <si>
@@ -1357,7 +1357,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -4887,7 +4887,9 @@
       <c r="C252" t="n">
         <v>2007</v>
       </c>
-      <c r="D252"/>
+      <c r="D252" t="n">
+        <v>37.25</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
@@ -4900,7 +4902,7 @@
         <v>2008</v>
       </c>
       <c r="D253" t="n">
-        <v>31.75</v>
+        <v>31.36</v>
       </c>
     </row>
     <row r="254">
@@ -4913,7 +4915,9 @@
       <c r="C254" t="n">
         <v>2009</v>
       </c>
-      <c r="D254"/>
+      <c r="D254" t="n">
+        <v>29.81</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
@@ -4986,7 +4990,7 @@
         <v>2007</v>
       </c>
       <c r="D260" t="n">
-        <v>37.25</v>
+        <v>30.36</v>
       </c>
     </row>
     <row r="261">
@@ -4999,9 +5003,7 @@
       <c r="C261" t="n">
         <v>2008</v>
       </c>
-      <c r="D261" t="n">
-        <v>31.36</v>
-      </c>
+      <c r="D261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
@@ -5013,9 +5015,7 @@
       <c r="C262" t="n">
         <v>2009</v>
       </c>
-      <c r="D262" t="n">
-        <v>29.81</v>
-      </c>
+      <c r="D262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
@@ -5087,9 +5087,7 @@
       <c r="C268" t="n">
         <v>2007</v>
       </c>
-      <c r="D268" t="n">
-        <v>30.36</v>
-      </c>
+      <c r="D268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
@@ -5293,7 +5291,9 @@
       <c r="C285" t="n">
         <v>2008</v>
       </c>
-      <c r="D285"/>
+      <c r="D285" t="n">
+        <v>46.13</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
@@ -5389,9 +5389,7 @@
       <c r="C293" t="n">
         <v>2008</v>
       </c>
-      <c r="D293" t="n">
-        <v>46.13</v>
-      </c>
+      <c r="D293"/>
     </row>
     <row r="294">
       <c r="A294" t="s">
@@ -5559,7 +5557,9 @@
       <c r="C307" t="n">
         <v>2006</v>
       </c>
-      <c r="D307"/>
+      <c r="D307" t="n">
+        <v>41.98</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
@@ -5595,7 +5595,9 @@
       <c r="C310" t="n">
         <v>2009</v>
       </c>
-      <c r="D310"/>
+      <c r="D310" t="n">
+        <v>42.77</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
@@ -5643,7 +5645,9 @@
       <c r="C314" t="n">
         <v>2005</v>
       </c>
-      <c r="D314"/>
+      <c r="D314" t="n">
+        <v>31.97</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
@@ -5655,9 +5659,7 @@
       <c r="C315" t="n">
         <v>2006</v>
       </c>
-      <c r="D315" t="n">
-        <v>41.98</v>
-      </c>
+      <c r="D315"/>
     </row>
     <row r="316">
       <c r="A316" t="s">
@@ -5681,7 +5683,9 @@
       <c r="C317" t="n">
         <v>2008</v>
       </c>
-      <c r="D317"/>
+      <c r="D317" t="n">
+        <v>31.05</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
@@ -5694,7 +5698,7 @@
         <v>2009</v>
       </c>
       <c r="D318" t="n">
-        <v>42.77</v>
+        <v>29.98</v>
       </c>
     </row>
     <row r="319">
@@ -5744,7 +5748,7 @@
         <v>2005</v>
       </c>
       <c r="D322" t="n">
-        <v>31.97</v>
+        <v>44.97</v>
       </c>
     </row>
     <row r="323">
@@ -5757,7 +5761,9 @@
       <c r="C323" t="n">
         <v>2006</v>
       </c>
-      <c r="D323"/>
+      <c r="D323" t="n">
+        <v>47.16</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
@@ -5769,7 +5775,9 @@
       <c r="C324" t="n">
         <v>2007</v>
       </c>
-      <c r="D324"/>
+      <c r="D324" t="n">
+        <v>47.84</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
@@ -5782,7 +5790,7 @@
         <v>2008</v>
       </c>
       <c r="D325" t="n">
-        <v>31.05</v>
+        <v>45.24</v>
       </c>
     </row>
     <row r="326">
@@ -5796,7 +5804,7 @@
         <v>2009</v>
       </c>
       <c r="D326" t="n">
-        <v>29.98</v>
+        <v>44.98</v>
       </c>
     </row>
     <row r="327">
@@ -5809,7 +5817,9 @@
       <c r="C327" t="n">
         <v>2010</v>
       </c>
-      <c r="D327"/>
+      <c r="D327" t="n">
+        <v>44.43</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
@@ -5845,9 +5855,7 @@
       <c r="C330" t="n">
         <v>2005</v>
       </c>
-      <c r="D330" t="n">
-        <v>44.97</v>
-      </c>
+      <c r="D330"/>
     </row>
     <row r="331">
       <c r="A331" t="s">
@@ -5859,9 +5867,7 @@
       <c r="C331" t="n">
         <v>2006</v>
       </c>
-      <c r="D331" t="n">
-        <v>47.16</v>
-      </c>
+      <c r="D331"/>
     </row>
     <row r="332">
       <c r="A332" t="s">
@@ -5873,9 +5879,7 @@
       <c r="C332" t="n">
         <v>2007</v>
       </c>
-      <c r="D332" t="n">
-        <v>47.84</v>
-      </c>
+      <c r="D332"/>
     </row>
     <row r="333">
       <c r="A333" t="s">
@@ -5887,9 +5891,7 @@
       <c r="C333" t="n">
         <v>2008</v>
       </c>
-      <c r="D333" t="n">
-        <v>45.24</v>
-      </c>
+      <c r="D333"/>
     </row>
     <row r="334">
       <c r="A334" t="s">
@@ -5901,9 +5903,7 @@
       <c r="C334" t="n">
         <v>2009</v>
       </c>
-      <c r="D334" t="n">
-        <v>44.98</v>
-      </c>
+      <c r="D334"/>
     </row>
     <row r="335">
       <c r="A335" t="s">
@@ -5915,9 +5915,7 @@
       <c r="C335" t="n">
         <v>2010</v>
       </c>
-      <c r="D335" t="n">
-        <v>44.43</v>
-      </c>
+      <c r="D335"/>
     </row>
     <row r="336">
       <c r="A336" t="s">
@@ -5953,7 +5951,9 @@
       <c r="C338" t="n">
         <v>2005</v>
       </c>
-      <c r="D338"/>
+      <c r="D338" t="n">
+        <v>37.05</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
@@ -6050,7 +6050,7 @@
         <v>2005</v>
       </c>
       <c r="D346" t="n">
-        <v>37.05</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="347">
@@ -6063,7 +6063,9 @@
       <c r="C347" t="n">
         <v>2006</v>
       </c>
-      <c r="D347"/>
+      <c r="D347" t="n">
+        <v>37.88</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
@@ -6075,7 +6077,9 @@
       <c r="C348" t="n">
         <v>2007</v>
       </c>
-      <c r="D348"/>
+      <c r="D348" t="n">
+        <v>38.72</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
@@ -6087,7 +6091,9 @@
       <c r="C349" t="n">
         <v>2008</v>
       </c>
-      <c r="D349"/>
+      <c r="D349" t="n">
+        <v>38.04</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
@@ -6099,7 +6105,9 @@
       <c r="C350" t="n">
         <v>2009</v>
       </c>
-      <c r="D350"/>
+      <c r="D350" t="n">
+        <v>39.5</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
@@ -6147,9 +6155,7 @@
       <c r="C354" t="n">
         <v>2005</v>
       </c>
-      <c r="D354" t="n">
-        <v>35.8</v>
-      </c>
+      <c r="D354"/>
     </row>
     <row r="355">
       <c r="A355" t="s">
@@ -6161,9 +6167,7 @@
       <c r="C355" t="n">
         <v>2006</v>
       </c>
-      <c r="D355" t="n">
-        <v>37.88</v>
-      </c>
+      <c r="D355"/>
     </row>
     <row r="356">
       <c r="A356" t="s">
@@ -6175,9 +6179,7 @@
       <c r="C356" t="n">
         <v>2007</v>
       </c>
-      <c r="D356" t="n">
-        <v>38.72</v>
-      </c>
+      <c r="D356"/>
     </row>
     <row r="357">
       <c r="A357" t="s">
@@ -6190,7 +6192,7 @@
         <v>2008</v>
       </c>
       <c r="D357" t="n">
-        <v>38.04</v>
+        <v>31.75</v>
       </c>
     </row>
     <row r="358">
@@ -6203,9 +6205,7 @@
       <c r="C358" t="n">
         <v>2009</v>
       </c>
-      <c r="D358" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="D358"/>
     </row>
     <row r="359">
       <c r="A359" t="s">
@@ -21515,9 +21515,7 @@
       <c r="C1602" t="n">
         <v>2005</v>
       </c>
-      <c r="D1602" t="n">
-        <v>22.73</v>
-      </c>
+      <c r="D1602"/>
     </row>
     <row r="1603">
       <c r="A1603" t="s">
@@ -21529,9 +21527,7 @@
       <c r="C1603" t="n">
         <v>2006</v>
       </c>
-      <c r="D1603" t="n">
-        <v>23.94</v>
-      </c>
+      <c r="D1603"/>
     </row>
     <row r="1604">
       <c r="A1604" t="s">
@@ -21543,9 +21539,7 @@
       <c r="C1604" t="n">
         <v>2007</v>
       </c>
-      <c r="D1604" t="n">
-        <v>23.88</v>
-      </c>
+      <c r="D1604"/>
     </row>
     <row r="1605">
       <c r="A1605" t="s">
@@ -21557,9 +21551,7 @@
       <c r="C1605" t="n">
         <v>2008</v>
       </c>
-      <c r="D1605" t="n">
-        <v>22.55</v>
-      </c>
+      <c r="D1605"/>
     </row>
     <row r="1606">
       <c r="A1606" t="s">
@@ -21571,9 +21563,7 @@
       <c r="C1606" t="n">
         <v>2009</v>
       </c>
-      <c r="D1606" t="n">
-        <v>22.04</v>
-      </c>
+      <c r="D1606"/>
     </row>
     <row r="1607">
       <c r="A1607" t="s">
@@ -21585,9 +21575,7 @@
       <c r="C1607" t="n">
         <v>2010</v>
       </c>
-      <c r="D1607" t="n">
-        <v>21.5</v>
-      </c>
+      <c r="D1607"/>
     </row>
     <row r="1608">
       <c r="A1608" t="s">
@@ -21623,7 +21611,9 @@
       <c r="C1610" t="n">
         <v>2005</v>
       </c>
-      <c r="D1610"/>
+      <c r="D1610" t="n">
+        <v>22.73</v>
+      </c>
     </row>
     <row r="1611">
       <c r="A1611" t="s">
@@ -21635,7 +21625,9 @@
       <c r="C1611" t="n">
         <v>2006</v>
       </c>
-      <c r="D1611"/>
+      <c r="D1611" t="n">
+        <v>23.94</v>
+      </c>
     </row>
     <row r="1612">
       <c r="A1612" t="s">
@@ -21647,7 +21639,9 @@
       <c r="C1612" t="n">
         <v>2007</v>
       </c>
-      <c r="D1612"/>
+      <c r="D1612" t="n">
+        <v>23.88</v>
+      </c>
     </row>
     <row r="1613">
       <c r="A1613" t="s">
@@ -21659,7 +21653,9 @@
       <c r="C1613" t="n">
         <v>2008</v>
       </c>
-      <c r="D1613"/>
+      <c r="D1613" t="n">
+        <v>22.55</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" t="s">
@@ -21671,7 +21667,9 @@
       <c r="C1614" t="n">
         <v>2009</v>
       </c>
-      <c r="D1614"/>
+      <c r="D1614" t="n">
+        <v>22.04</v>
+      </c>
     </row>
     <row r="1615">
       <c r="A1615" t="s">
@@ -21683,7 +21681,9 @@
       <c r="C1615" t="n">
         <v>2010</v>
       </c>
-      <c r="D1615"/>
+      <c r="D1615" t="n">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="1616">
       <c r="A1616" t="s">
@@ -23326,11 +23326,15 @@
       </c>
       <c r="C33"/>
       <c r="D33"/>
-      <c r="E33"/>
+      <c r="E33" t="n">
+        <v>37.25</v>
+      </c>
       <c r="F33" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="G33"/>
+        <v>31.36</v>
+      </c>
+      <c r="G33" t="n">
+        <v>29.81</v>
+      </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
@@ -23345,14 +23349,10 @@
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34" t="n">
-        <v>37.25</v>
-      </c>
-      <c r="F34" t="n">
-        <v>31.36</v>
-      </c>
-      <c r="G34" t="n">
-        <v>29.81</v>
-      </c>
+        <v>30.36</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
@@ -23366,9 +23366,7 @@
       </c>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="E35" t="n">
-        <v>30.36</v>
-      </c>
+      <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
@@ -23401,7 +23399,9 @@
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
-      <c r="F37"/>
+      <c r="F37" t="n">
+        <v>46.13</v>
+      </c>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -23417,9 +23417,7 @@
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38" t="n">
-        <v>46.13</v>
-      </c>
+      <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -23449,10 +23447,14 @@
         <v>81</v>
       </c>
       <c r="C40"/>
-      <c r="D40"/>
+      <c r="D40" t="n">
+        <v>41.98</v>
+      </c>
       <c r="E40"/>
       <c r="F40"/>
-      <c r="G40"/>
+      <c r="G40" t="n">
+        <v>42.77</v>
+      </c>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
@@ -23464,14 +23466,16 @@
       <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="C41"/>
-      <c r="D41" t="n">
-        <v>41.98</v>
-      </c>
+      <c r="C41" t="n">
+        <v>31.97</v>
+      </c>
+      <c r="D41"/>
       <c r="E41"/>
-      <c r="F41"/>
+      <c r="F41" t="n">
+        <v>31.05</v>
+      </c>
       <c r="G41" t="n">
-        <v>42.77</v>
+        <v>29.98</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
@@ -23485,17 +23489,23 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>31.97</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42"/>
+        <v>44.97</v>
+      </c>
+      <c r="D42" t="n">
+        <v>47.16</v>
+      </c>
+      <c r="E42" t="n">
+        <v>47.84</v>
+      </c>
       <c r="F42" t="n">
-        <v>31.05</v>
+        <v>45.24</v>
       </c>
       <c r="G42" t="n">
-        <v>29.98</v>
-      </c>
-      <c r="H42"/>
+        <v>44.98</v>
+      </c>
+      <c r="H42" t="n">
+        <v>44.43</v>
+      </c>
       <c r="I42"/>
       <c r="J42"/>
     </row>
@@ -23506,24 +23516,12 @@
       <c r="B43" t="s">
         <v>87</v>
       </c>
-      <c r="C43" t="n">
-        <v>44.97</v>
-      </c>
-      <c r="D43" t="n">
-        <v>47.16</v>
-      </c>
-      <c r="E43" t="n">
-        <v>47.84</v>
-      </c>
-      <c r="F43" t="n">
-        <v>45.24</v>
-      </c>
-      <c r="G43" t="n">
-        <v>44.98</v>
-      </c>
-      <c r="H43" t="n">
-        <v>44.43</v>
-      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
@@ -23534,7 +23532,9 @@
       <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="C44"/>
+      <c r="C44" t="n">
+        <v>37.05</v>
+      </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
@@ -23551,12 +23551,20 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>37.05</v>
-      </c>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
+        <v>35.8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>37.88</v>
+      </c>
+      <c r="E45" t="n">
+        <v>38.72</v>
+      </c>
+      <c r="F45" t="n">
+        <v>38.04</v>
+      </c>
+      <c r="G45" t="n">
+        <v>39.5</v>
+      </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
@@ -23568,21 +23576,13 @@
       <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="C46" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="D46" t="n">
-        <v>37.88</v>
-      </c>
-      <c r="E46" t="n">
-        <v>38.72</v>
-      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
       <c r="F46" t="n">
-        <v>38.04</v>
-      </c>
-      <c r="G46" t="n">
-        <v>39.5</v>
-      </c>
+        <v>31.75</v>
+      </c>
+      <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
@@ -26456,24 +26456,12 @@
       <c r="B202" t="s">
         <v>405</v>
       </c>
-      <c r="C202" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="D202" t="n">
-        <v>23.94</v>
-      </c>
-      <c r="E202" t="n">
-        <v>23.88</v>
-      </c>
-      <c r="F202" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="G202" t="n">
-        <v>22.04</v>
-      </c>
-      <c r="H202" t="n">
-        <v>21.5</v>
-      </c>
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202"/>
+      <c r="H202"/>
       <c r="I202"/>
       <c r="J202"/>
     </row>
@@ -26484,12 +26472,24 @@
       <c r="B203" t="s">
         <v>407</v>
       </c>
-      <c r="C203"/>
-      <c r="D203"/>
-      <c r="E203"/>
-      <c r="F203"/>
-      <c r="G203"/>
-      <c r="H203"/>
+      <c r="C203" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="D203" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="E203" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="F203" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="G203" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="H203" t="n">
+        <v>21.5</v>
+      </c>
       <c r="I203"/>
       <c r="J203"/>
     </row>
